--- a/natmiOut/YoungD7/LR-pairs_lrc2p/C3-Lrp1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/C3-Lrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.83010728363139</v>
+        <v>40.942832</v>
       </c>
       <c r="H2">
-        <v>1.83010728363139</v>
+        <v>122.828496</v>
       </c>
       <c r="I2">
-        <v>0.01639627291296671</v>
+        <v>0.2583000005785167</v>
       </c>
       <c r="J2">
-        <v>0.01639627291296671</v>
+        <v>0.2583000005785167</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N2">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q2">
-        <v>12.95544780744126</v>
+        <v>967.7164930523253</v>
       </c>
       <c r="R2">
-        <v>12.95544780744126</v>
+        <v>8709.448437470928</v>
       </c>
       <c r="S2">
-        <v>0.0003636283819974044</v>
+        <v>0.01763632260932571</v>
       </c>
       <c r="T2">
-        <v>0.0003636283819974044</v>
+        <v>0.01763632260932571</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.83010728363139</v>
+        <v>40.942832</v>
       </c>
       <c r="H3">
-        <v>1.83010728363139</v>
+        <v>122.828496</v>
       </c>
       <c r="I3">
-        <v>0.01639627291296671</v>
+        <v>0.2583000005785167</v>
       </c>
       <c r="J3">
-        <v>0.01639627291296671</v>
+        <v>0.2583000005785167</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N3">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P3">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q3">
-        <v>331.0920916327273</v>
+        <v>7422.460149910924</v>
       </c>
       <c r="R3">
-        <v>331.0920916327273</v>
+        <v>66802.14134919831</v>
       </c>
       <c r="S3">
-        <v>0.00929296179969894</v>
+        <v>0.135271954853016</v>
       </c>
       <c r="T3">
-        <v>0.00929296179969894</v>
+        <v>0.135271954853016</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.83010728363139</v>
+        <v>40.942832</v>
       </c>
       <c r="H4">
-        <v>1.83010728363139</v>
+        <v>122.828496</v>
       </c>
       <c r="I4">
-        <v>0.01639627291296671</v>
+        <v>0.2583000005785167</v>
       </c>
       <c r="J4">
-        <v>0.01639627291296671</v>
+        <v>0.2583000005785167</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N4">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q4">
-        <v>185.1376253611199</v>
+        <v>4548.771003633883</v>
       </c>
       <c r="R4">
-        <v>185.1376253611199</v>
+        <v>40938.93903270494</v>
       </c>
       <c r="S4">
-        <v>0.005196369601229696</v>
+        <v>0.08289989213989318</v>
       </c>
       <c r="T4">
-        <v>0.005196369601229696</v>
+        <v>0.08289989213989318</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.83010728363139</v>
+        <v>40.942832</v>
       </c>
       <c r="H5">
-        <v>1.83010728363139</v>
+        <v>122.828496</v>
       </c>
       <c r="I5">
-        <v>0.01639627291296671</v>
+        <v>0.2583000005785167</v>
       </c>
       <c r="J5">
-        <v>0.01639627291296671</v>
+        <v>0.2583000005785167</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N5">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q5">
-        <v>54.98556684973923</v>
+        <v>1234.141395394059</v>
       </c>
       <c r="R5">
-        <v>54.98556684973923</v>
+        <v>11107.27255854653</v>
       </c>
       <c r="S5">
-        <v>0.001543313130040677</v>
+        <v>0.02249183097628173</v>
       </c>
       <c r="T5">
-        <v>0.001543313130040677</v>
+        <v>0.02249183097628173</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>74.57477241737681</v>
+        <v>79.68771233333334</v>
       </c>
       <c r="H6">
-        <v>74.57477241737681</v>
+        <v>239.063137</v>
       </c>
       <c r="I6">
-        <v>0.6681293123709416</v>
+        <v>0.5027335710876245</v>
       </c>
       <c r="J6">
-        <v>0.6681293123709416</v>
+        <v>0.5027335710876245</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N6">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O6">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P6">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q6">
-        <v>527.9196364313971</v>
+        <v>1883.482645230205</v>
       </c>
       <c r="R6">
-        <v>527.9196364313971</v>
+        <v>16951.34380707184</v>
       </c>
       <c r="S6">
-        <v>0.01481743943346725</v>
+        <v>0.03432586692366102</v>
       </c>
       <c r="T6">
-        <v>0.01481743943346725</v>
+        <v>0.03432586692366102</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>74.57477241737681</v>
+        <v>79.68771233333334</v>
       </c>
       <c r="H7">
-        <v>74.57477241737681</v>
+        <v>239.063137</v>
       </c>
       <c r="I7">
-        <v>0.6681293123709416</v>
+        <v>0.5027335710876245</v>
       </c>
       <c r="J7">
-        <v>0.6681293123709416</v>
+        <v>0.5027335710876245</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N7">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P7">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q7">
-        <v>13491.62292481048</v>
+        <v>14446.45717794343</v>
       </c>
       <c r="R7">
-        <v>13491.62292481048</v>
+        <v>130018.1146014908</v>
       </c>
       <c r="S7">
-        <v>0.3786775330027642</v>
+        <v>0.2632820471503973</v>
       </c>
       <c r="T7">
-        <v>0.3786775330027642</v>
+        <v>0.2632820471503972</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>74.57477241737681</v>
+        <v>79.68771233333334</v>
       </c>
       <c r="H8">
-        <v>74.57477241737681</v>
+        <v>239.063137</v>
       </c>
       <c r="I8">
-        <v>0.6681293123709416</v>
+        <v>0.5027335710876245</v>
       </c>
       <c r="J8">
-        <v>0.6681293123709416</v>
+        <v>0.5027335710876245</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N8">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O8">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P8">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q8">
-        <v>7544.145854555231</v>
+        <v>8853.348376286838</v>
       </c>
       <c r="R8">
-        <v>7544.145854555231</v>
+        <v>79680.13538658153</v>
       </c>
       <c r="S8">
-        <v>0.2117461002829009</v>
+        <v>0.1613494337008287</v>
       </c>
       <c r="T8">
-        <v>0.2117461002829009</v>
+        <v>0.1613494337008287</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>74.57477241737681</v>
+        <v>79.68771233333334</v>
       </c>
       <c r="H9">
-        <v>74.57477241737681</v>
+        <v>239.063137</v>
       </c>
       <c r="I9">
-        <v>0.6681293123709416</v>
+        <v>0.5027335710876245</v>
       </c>
       <c r="J9">
-        <v>0.6681293123709416</v>
+        <v>0.5027335710876245</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N9">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O9">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P9">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q9">
-        <v>2240.598772943668</v>
+        <v>2402.029847247019</v>
       </c>
       <c r="R9">
-        <v>2240.598772943668</v>
+        <v>21618.26862522317</v>
       </c>
       <c r="S9">
-        <v>0.06288823965180948</v>
+        <v>0.04377622331273749</v>
       </c>
       <c r="T9">
-        <v>0.06288823965180948</v>
+        <v>0.04377622331273749</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>34.8682733021744</v>
+        <v>37.53186833333334</v>
       </c>
       <c r="H10">
-        <v>34.8682733021744</v>
+        <v>112.595605</v>
       </c>
       <c r="I10">
-        <v>0.3123913719046829</v>
+        <v>0.2367809244903433</v>
       </c>
       <c r="J10">
-        <v>0.3123913719046829</v>
+        <v>0.2367809244903433</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N10">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O10">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P10">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q10">
-        <v>246.834761514945</v>
+        <v>887.0956459786405</v>
       </c>
       <c r="R10">
-        <v>246.834761514945</v>
+        <v>7983.860813807765</v>
       </c>
       <c r="S10">
-        <v>0.00692806040242323</v>
+        <v>0.01616703353733329</v>
       </c>
       <c r="T10">
-        <v>0.00692806040242323</v>
+        <v>0.01616703353733328</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>34.8682733021744</v>
+        <v>37.53186833333334</v>
       </c>
       <c r="H11">
-        <v>34.8682733021744</v>
+        <v>112.595605</v>
       </c>
       <c r="I11">
-        <v>0.3123913719046829</v>
+        <v>0.2367809244903433</v>
       </c>
       <c r="J11">
-        <v>0.3123913719046829</v>
+        <v>0.2367809244903433</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N11">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P11">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q11">
-        <v>6308.159987392169</v>
+        <v>6804.092033884475</v>
       </c>
       <c r="R11">
-        <v>6308.159987392169</v>
+        <v>61236.82830496028</v>
       </c>
       <c r="S11">
-        <v>0.1770549380993739</v>
+        <v>0.1240023943320777</v>
       </c>
       <c r="T11">
-        <v>0.1770549380993739</v>
+        <v>0.1240023943320776</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.8682733021744</v>
+        <v>37.53186833333334</v>
       </c>
       <c r="H12">
-        <v>34.8682733021744</v>
+        <v>112.595605</v>
       </c>
       <c r="I12">
-        <v>0.3123913719046829</v>
+        <v>0.2367809244903433</v>
       </c>
       <c r="J12">
-        <v>0.3123913719046829</v>
+        <v>0.2367809244903433</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N12">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O12">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P12">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q12">
-        <v>3527.350214572077</v>
+        <v>4169.811076744066</v>
       </c>
       <c r="R12">
-        <v>3527.350214572077</v>
+        <v>37528.29969069659</v>
       </c>
       <c r="S12">
-        <v>0.09900426988917554</v>
+        <v>0.07599346905563362</v>
       </c>
       <c r="T12">
-        <v>0.09900426988917554</v>
+        <v>0.0759934690556336</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.8682733021744</v>
+        <v>37.53186833333334</v>
       </c>
       <c r="H13">
-        <v>34.8682733021744</v>
+        <v>112.595605</v>
       </c>
       <c r="I13">
-        <v>0.3123913719046829</v>
+        <v>0.2367809244903433</v>
       </c>
       <c r="J13">
-        <v>0.3123913719046829</v>
+        <v>0.2367809244903433</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N13">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O13">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P13">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q13">
-        <v>1047.617147770366</v>
+        <v>1131.324583425155</v>
       </c>
       <c r="R13">
-        <v>1047.617147770366</v>
+        <v>10181.92125082639</v>
       </c>
       <c r="S13">
-        <v>0.02940410351371029</v>
+        <v>0.02061802756529871</v>
       </c>
       <c r="T13">
-        <v>0.02940410351371029</v>
+        <v>0.02061802756529871</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.34412083373193</v>
+        <v>0.3464216666666666</v>
       </c>
       <c r="H14">
-        <v>0.34412083373193</v>
+        <v>1.039265</v>
       </c>
       <c r="I14">
-        <v>0.003083042811408648</v>
+        <v>0.002185503843515531</v>
       </c>
       <c r="J14">
-        <v>0.003083042811408648</v>
+        <v>0.002185503843515531</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N14">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O14">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P14">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q14">
-        <v>2.436053635074841</v>
+        <v>8.187952420682777</v>
       </c>
       <c r="R14">
-        <v>2.436053635074841</v>
+        <v>73.69157178614499</v>
       </c>
       <c r="S14">
-        <v>6.837418937169966E-05</v>
+        <v>0.000149222805891728</v>
       </c>
       <c r="T14">
-        <v>6.837418937169966E-05</v>
+        <v>0.000149222805891728</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.34412083373193</v>
+        <v>0.3464216666666666</v>
       </c>
       <c r="H15">
-        <v>0.34412083373193</v>
+        <v>1.039265</v>
       </c>
       <c r="I15">
-        <v>0.003083042811408648</v>
+        <v>0.002185503843515531</v>
       </c>
       <c r="J15">
-        <v>0.003083042811408648</v>
+        <v>0.002185503843515531</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N15">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O15">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P15">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q15">
-        <v>62.25628826995639</v>
+        <v>62.80222667301222</v>
       </c>
       <c r="R15">
-        <v>62.25628826995639</v>
+        <v>565.2200400571099</v>
       </c>
       <c r="S15">
-        <v>0.001747384861507102</v>
+        <v>0.001144550432013103</v>
       </c>
       <c r="T15">
-        <v>0.001747384861507102</v>
+        <v>0.001144550432013103</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.34412083373193</v>
+        <v>0.3464216666666666</v>
       </c>
       <c r="H16">
-        <v>0.34412083373193</v>
+        <v>1.039265</v>
       </c>
       <c r="I16">
-        <v>0.003083042811408648</v>
+        <v>0.002185503843515531</v>
       </c>
       <c r="J16">
-        <v>0.003083042811408648</v>
+        <v>0.002185503843515531</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N16">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O16">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P16">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q16">
-        <v>34.8120105112102</v>
+        <v>38.48763642837055</v>
       </c>
       <c r="R16">
-        <v>34.8120105112102</v>
+        <v>346.3887278553349</v>
       </c>
       <c r="S16">
-        <v>0.0009770897343276104</v>
+        <v>0.0007014248257567696</v>
       </c>
       <c r="T16">
-        <v>0.0009770897343276104</v>
+        <v>0.0007014248257567696</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.34412083373193</v>
+        <v>0.3464216666666666</v>
       </c>
       <c r="H17">
-        <v>0.34412083373193</v>
+        <v>1.039265</v>
       </c>
       <c r="I17">
-        <v>0.003083042811408648</v>
+        <v>0.002185503843515531</v>
       </c>
       <c r="J17">
-        <v>0.003083042811408648</v>
+        <v>0.002185503843515531</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N17">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O17">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P17">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q17">
-        <v>10.33910922971122</v>
+        <v>10.44220192425222</v>
       </c>
       <c r="R17">
-        <v>10.33910922971122</v>
+        <v>93.97981731826998</v>
       </c>
       <c r="S17">
-        <v>0.0002901940262022369</v>
+        <v>0.0001903057798539309</v>
       </c>
       <c r="T17">
-        <v>0.0002901940262022369</v>
+        <v>0.0001903057798539309</v>
       </c>
     </row>
   </sheetData>
